--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_332__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_332__Reeval_Halton_Modell_1.2.xlsx
@@ -6011,7 +6011,7 @@
                   <c:v>4.810047626495361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.94042205810547</c:v>
+                  <c:v>65.94040679931641</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>93.09292602539062</c:v>
@@ -6065,7 +6065,7 @@
                   <c:v>4.810047626495361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.6619987487793</c:v>
+                  <c:v>47.66201019287109</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.810047626495361</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>4.810047626495361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63.3868408203125</c:v>
+                  <c:v>63.38682556152344</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>93.64069366455078</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>86.21932220458984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.81171035766602</c:v>
+                  <c:v>43.81168365478516</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.810047626495361</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>81.38959503173828</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32.75370788574219</c:v>
+                  <c:v>32.75373077392578</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>36.73712539672852</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>86.21932220458984</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>39.96531677246094</c:v>
+                  <c:v>39.9653205871582</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.810047626495361</c:v>
@@ -6188,7 +6188,7 @@
                   <c:v>93.28219604492188</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.65070915222168</c:v>
+                  <c:v>27.65071868896484</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>4.810047626495361</c:v>
@@ -6260,7 +6260,7 @@
                   <c:v>4.810047626495361</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>50.83089447021484</c:v>
+                  <c:v>50.83086013793945</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>92.75746917724609</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>92.67545318603516</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>22.41394233703613</c:v>
+                  <c:v>22.4139518737793</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>86.21932220458984</c:v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>65.94042205810547</v>
+        <v>65.94040679931641</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>47.6619987487793</v>
+        <v>47.66201019287109</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>63.3868408203125</v>
+        <v>63.38682556152344</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>43.81171035766602</v>
+        <v>43.81168365478516</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>32.75370788574219</v>
+        <v>32.75373077392578</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>39.96531677246094</v>
+        <v>39.9653205871582</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>27.65070915222168</v>
+        <v>27.65071868896484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>50.83089447021484</v>
+        <v>50.83086013793945</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>22.41394233703613</v>
+        <v>22.4139518737793</v>
       </c>
     </row>
     <row r="100" spans="1:6">
